--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Outputs" sheetId="1" r:id="rId1"/>
+    <sheet name="Rutas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="156">
   <si>
     <t>extApellidoPat</t>
   </si>
@@ -408,9 +408,6 @@
     <t>Fhir</t>
   </si>
   <si>
-    <t>Practitioner</t>
-  </si>
-  <si>
     <t>CarePlan</t>
   </si>
   <si>
@@ -421,13 +418,88 @@
   </si>
   <si>
     <t>Organization</t>
+  </si>
+  <si>
+    <t>[name].family</t>
+  </si>
+  <si>
+    <t>[name].given</t>
+  </si>
+  <si>
+    <t>Parametro</t>
+  </si>
+  <si>
+    <t>[name].maiden??</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>birthDate</t>
+  </si>
+  <si>
+    <t>quizas agregar multiples rutas para el mismo soap (caso de 2 benecifiarios)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>pide nucho detalle (rellenar con supuestos?)</t>
+  </si>
+  <si>
+    <t>Ojo con si viene m = man</t>
+  </si>
+  <si>
+    <t>Verificar formato fecha</t>
+  </si>
+  <si>
+    <t>[address].city</t>
+  </si>
+  <si>
+    <t>[address].line</t>
+  </si>
+  <si>
+    <t>[address].district</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>chequear como trasformar el dato</t>
+  </si>
+  <si>
+    <t>[issue].code</t>
+  </si>
+  <si>
+    <t>[issue][details]</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>detalles</t>
+  </si>
+  <si>
+    <t>completo</t>
+  </si>
+  <si>
+    <t>Prestador, Administrador</t>
+  </si>
+  <si>
+    <t>completitud</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Genera cambios al parecer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +539,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -476,7 +554,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -484,11 +562,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDCDCDC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDCDCDC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDCDCDC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDCDCDC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -508,6 +601,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G63"/>
+  <dimension ref="C1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,9 +896,11 @@
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>21</v>
       </c>
@@ -814,125 +913,172 @@
       <c r="G1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -941,54 +1087,75 @@
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -997,12 +1164,18 @@
         <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -1011,462 +1184,455 @@
         <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="5" t="s">
-        <v>45</v>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="1" t="s">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D56" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D57" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C2:I61">
+    <sortCondition ref="G2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1474,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -1484,7 +1650,7 @@
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="76.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1503,6 +1669,12 @@
       <c r="E1" t="s">
         <v>84</v>
       </c>
+      <c r="F1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1554,7 +1726,7 @@
       <c r="E4" t="s">
         <v>88</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1574,7 +1746,7 @@
       <c r="E5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1594,118 +1766,144 @@
       <c r="E6" t="s">
         <v>88</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
       </c>
-      <c r="G8" t="s">
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E15">
+  <sortState ref="A1:F19">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Rutas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="153">
   <si>
     <t>extApellidoPat</t>
   </si>
@@ -408,9 +409,6 @@
     <t>Fhir</t>
   </si>
   <si>
-    <t>CarePlan</t>
-  </si>
-  <si>
     <t>OperationOutcome</t>
   </si>
   <si>
@@ -429,24 +427,12 @@
     <t>Parametro</t>
   </si>
   <si>
-    <t>[name].maiden??</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>birthDate</t>
-  </si>
-  <si>
     <t>quizas agregar multiples rutas para el mismo soap (caso de 2 benecifiarios)</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>pide nucho detalle (rellenar con supuestos?)</t>
-  </si>
-  <si>
     <t>Ojo con si viene m = man</t>
   </si>
   <si>
@@ -462,9 +448,6 @@
     <t>[address].district</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
     <t>chequear como trasformar el dato</t>
   </si>
   <si>
@@ -493,6 +476,15 @@
   </si>
   <si>
     <t>Genera cambios al parecer</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>use: official</t>
+  </si>
+  <si>
+    <t>use: maiden, pide nucho detalle (rellenar con supuestos?)</t>
   </si>
 </sst>
 </file>
@@ -888,7 +880,7 @@
   <dimension ref="C1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,13 +906,13 @@
         <v>126</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="4:10" x14ac:dyDescent="0.25">
@@ -934,7 +926,7 @@
         <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
@@ -948,10 +940,10 @@
         <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.25">
@@ -965,10 +957,10 @@
         <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -982,10 +974,10 @@
         <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -999,7 +991,7 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -1014,7 +1006,7 @@
         <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
@@ -1028,7 +1020,7 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
@@ -1042,7 +1034,7 @@
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
@@ -1056,7 +1048,7 @@
         <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
@@ -1070,10 +1062,10 @@
         <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
@@ -1087,13 +1079,13 @@
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
@@ -1107,10 +1099,13 @@
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="I13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
@@ -1124,13 +1119,10 @@
         <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" t="s">
         <v>135</v>
-      </c>
-      <c r="I14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
@@ -1144,13 +1136,10 @@
         <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
@@ -1164,13 +1153,10 @@
         <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
@@ -1184,7 +1170,7 @@
         <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
@@ -1201,10 +1187,10 @@
         <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
@@ -1218,7 +1204,7 @@
         <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
@@ -1232,10 +1218,10 @@
         <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
@@ -1249,10 +1235,10 @@
         <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
@@ -1266,10 +1252,10 @@
         <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
@@ -1283,7 +1269,7 @@
         <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
@@ -1297,7 +1283,7 @@
         <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
@@ -1311,7 +1297,7 @@
         <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
@@ -1325,7 +1311,7 @@
         <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
@@ -1339,7 +1325,7 @@
         <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
@@ -1556,7 +1542,7 @@
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
@@ -1642,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,10 +1656,10 @@
         <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1784,13 +1770,13 @@
         <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
         <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1807,7 +1793,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
         <v>122</v>
@@ -1899,7 +1885,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
